--- a/public/content/files/2019-possible-requirements.xlsx
+++ b/public/content/files/2019-possible-requirements.xlsx
@@ -1,41 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdb990ae1c7681ff/Cross Timbers Day Camp/2019-dinosaurs/Program/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_8623C530B21E7152DA740ABE9F8D98FC025B15FC" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{44DE27A7-37AE-2C43-AFA9-EF447D46EF1C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="10605"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22740" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rank" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="By Rank" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Table1[#All]</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Rank!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'By Rank'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="136">
   <si>
     <t>All Ranks</t>
   </si>
@@ -397,9 +391,6 @@
     <t>explain history of US flag, help lead a flag ceremony</t>
   </si>
   <si>
-    <t>Wolf-AoL</t>
-  </si>
-  <si>
     <t>CS Nova "Down and Dirty"</t>
   </si>
   <si>
@@ -436,9 +427,6 @@
     <t>differences between physical remains, artifacts, and ecofacts</t>
   </si>
   <si>
-    <t>Awards</t>
-  </si>
-  <si>
     <t>Award</t>
   </si>
   <si>
@@ -446,12 +434,15 @@
   </si>
   <si>
     <t>Req.</t>
+  </si>
+  <si>
+    <t>Wolf/Bear/ Webelos/AoL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -501,7 +492,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -519,7 +510,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -562,13 +553,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D80" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:D80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D80" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Rank" dataDxfId="5"/>
-    <tableColumn id="2" name="Award" dataDxfId="4"/>
-    <tableColumn id="3" name="Req." dataDxfId="3"/>
-    <tableColumn id="4" name="Summary" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Rank" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Award" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Req." dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Summary" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -870,38 +861,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,7 +920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,7 +934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,77 +984,77 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
+        <v>120</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
+        <v>125</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
+        <v>125</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
+        <v>125</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1071,926 +1062,926 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1">
         <v>6</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="1">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="1">
-        <v>3</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C42" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C45" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C47" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="1">
-        <v>3</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="1">
-        <v>4</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C58" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C59" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C67" s="1">
         <v>8</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C69" s="1">
         <v>4</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" s="1">
-        <v>3</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C68" s="1">
-        <v>2</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C69" s="1">
-        <v>3</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C70" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C71" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C72" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C73" s="1">
         <v>2</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C74" s="1">
         <v>3</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A1:XFD1048555">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFD1048555">
     <sortCondition ref="A1:A1048555"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2002,24 +1993,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>